--- a/LCQ data.xlsx
+++ b/LCQ data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Consulting META/Meta-Analysis-Gintas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55340ACF-0445-1C4B-8237-E65AF6DEB439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6684A4E2-B719-704A-A3E2-41E2ABDA6402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="740" windowWidth="27640" windowHeight="15860" xr2:uid="{33D5FC81-9AE6-BA43-ABEA-DDFB7F03EACB}"/>
   </bookViews>
@@ -48,12 +48,6 @@
     <t>Mean C (SD)</t>
   </si>
   <si>
-    <t>Mean Treatment (outcome 3: LCQ) -baseline</t>
-  </si>
-  <si>
-    <t>Mean Control - baseline</t>
-  </si>
-  <si>
     <t>N treatment</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>Eliapixant</t>
+  </si>
+  <si>
+    <t>Mean Treatment (outcome 3: LCQ) -result</t>
+  </si>
+  <si>
+    <t>Mean Control - result</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,24 +470,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
@@ -505,16 +505,16 @@
         <v>15</v>
       </c>
       <c r="E2" s="4">
-        <v>11.65</v>
+        <v>1.8</v>
       </c>
       <c r="F2" s="4">
-        <v>1.97</v>
+        <v>3.8</v>
       </c>
       <c r="G2" s="4">
-        <v>11.86</v>
+        <v>1.8</v>
       </c>
       <c r="H2" s="4">
-        <v>2.95</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>32</v>
@@ -531,16 +531,16 @@
         <v>30</v>
       </c>
       <c r="E3" s="4">
-        <v>13.3</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="4">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G3" s="4">
-        <v>12.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H3" s="4">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -548,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>190</v>
@@ -557,16 +557,16 @@
         <v>63</v>
       </c>
       <c r="E4" s="4">
-        <v>11.4</v>
+        <v>4</v>
       </c>
       <c r="F4" s="4">
-        <v>2.8</v>
+        <v>3.77</v>
       </c>
       <c r="G4" s="4">
-        <v>12.2</v>
+        <v>1.6</v>
       </c>
       <c r="H4" s="4">
-        <v>2.8</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <v>20</v>
@@ -583,16 +583,16 @@
         <v>20</v>
       </c>
       <c r="E5" s="4">
-        <v>11.54</v>
+        <v>2.15</v>
       </c>
       <c r="F5" s="4">
-        <v>3.51</v>
+        <v>3.89</v>
       </c>
       <c r="G5" s="4">
-        <v>11.54</v>
+        <v>0.69</v>
       </c>
       <c r="H5" s="4">
-        <v>3.51</v>
+        <v>3.06</v>
       </c>
     </row>
   </sheetData>
@@ -601,21 +601,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D8241F6DE20A84EB9BB161EB94B38F1" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e490530168d211ff1cb2fcebe63eac75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41bd344c-e8b6-4b17-be3c-6454a6041fa3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4a9963c84f32df8fd0577fe8db1f144" ns2:_="">
     <xsd:import namespace="41bd344c-e8b6-4b17-be3c-6454a6041fa3"/>
@@ -761,24 +746,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49C002A-3A51-4447-B68F-C370838CB80E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2108057-B233-4ED9-863D-4B564CD34912}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADD0C95F-8BDE-4DE5-A534-396CBA2C3711}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -794,4 +777,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2108057-B233-4ED9-863D-4B564CD34912}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49C002A-3A51-4447-B68F-C370838CB80E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>